--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebenezersolomon/Documents/GitHub/bluejay/Earth-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47FD0E0-6F44-4646-BF1F-FFFCF99FFB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B9AAE-7B96-E947-93D7-3730149D10FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{F49DAA0A-82A3-4B5F-9C2C-4D9969D3062E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F49DAA0A-82A3-4B5F-9C2C-4D9969D3062E}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="2" r:id="rId1"/>
@@ -671,13 +671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54FE042-F072-4117-BA7D-F060653EB408}">
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="V116" sqref="V116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -848,7 +848,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>2.1999999999999999E-10</v>
+        <v>1.2400000000000001E-10</v>
+      </c>
+      <c r="M3">
+        <v>0.26</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -872,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -906,6 +912,12 @@
       <c r="L4" s="1">
         <v>2.1999999999999999E-10</v>
       </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.32</v>
+      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -928,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1148,6 +1160,15 @@
       <c r="K8">
         <v>0.5</v>
       </c>
+      <c r="L8" s="1">
+        <v>3.1000000000000002E-10</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1650</v>
+      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -1170,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1204,6 +1225,15 @@
       <c r="K9">
         <v>0.5</v>
       </c>
+      <c r="L9" s="1">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -1226,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1257,6 +1287,15 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="L10" s="1">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -1279,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1313,6 +1352,15 @@
       <c r="K11">
         <v>0.5</v>
       </c>
+      <c r="L11" s="1">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -1335,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1369,6 +1417,15 @@
       <c r="K12">
         <v>0.5</v>
       </c>
+      <c r="L12" s="1">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -1391,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1453,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1515,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1580,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1710,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1775,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1899,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1961,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2085,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2215,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2280,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2345,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2407,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2469,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2534,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2599,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2630,6 +2687,15 @@
       <c r="J32">
         <v>0</v>
       </c>
+      <c r="L32" s="1">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32">
         <v>0</v>
       </c>
@@ -2652,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2714,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2776,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2838,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2900,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2931,6 +2997,15 @@
       <c r="J37">
         <v>0</v>
       </c>
+      <c r="L37" s="1">
+        <v>1E-13</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>520</v>
+      </c>
       <c r="O37">
         <v>0</v>
       </c>
@@ -2953,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2984,6 +3059,15 @@
       <c r="J38">
         <v>0</v>
       </c>
+      <c r="L38" s="1">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38">
         <v>0</v>
       </c>
@@ -3006,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3037,6 +3121,15 @@
       <c r="J39">
         <v>0</v>
       </c>
+      <c r="L39" s="1">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
       <c r="O39">
         <v>0</v>
       </c>
@@ -3059,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3121,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3186,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3251,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -3316,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3381,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -3446,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3570,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3601,6 +3694,15 @@
       <c r="J48">
         <v>0</v>
       </c>
+      <c r="L48" s="1">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
       <c r="O48">
         <v>0</v>
       </c>
@@ -3623,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -3654,6 +3756,15 @@
       <c r="J49">
         <v>0</v>
       </c>
+      <c r="L49" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="M49">
+        <v>0.17</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
       <c r="O49">
         <v>0</v>
       </c>
@@ -3676,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3707,6 +3818,15 @@
       <c r="J50">
         <v>0</v>
       </c>
+      <c r="L50" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
       <c r="O50">
         <v>0</v>
       </c>
@@ -3729,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -3791,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3853,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3915,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3977,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4008,6 +4128,15 @@
       <c r="J55">
         <v>0</v>
       </c>
+      <c r="L55" s="1">
+        <v>1.1099999999999999E-13</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>-1850</v>
+      </c>
       <c r="O55">
         <v>0</v>
       </c>
@@ -4030,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -4061,6 +4190,15 @@
       <c r="J56">
         <v>0</v>
       </c>
+      <c r="L56" s="1">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
       <c r="O56">
         <v>0</v>
       </c>
@@ -4083,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -4145,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4207,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -4269,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -4331,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -4362,6 +4500,15 @@
       <c r="J61">
         <v>0</v>
       </c>
+      <c r="L61" s="1">
+        <v>4.1200000000000001E-13</v>
+      </c>
+      <c r="M61" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="N61" s="1">
+        <v>-820</v>
+      </c>
       <c r="O61">
         <v>0</v>
       </c>
@@ -4384,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4449,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4483,6 +4630,15 @@
       <c r="K63">
         <v>0.33</v>
       </c>
+      <c r="L63" s="1">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
       <c r="O63">
         <v>0</v>
       </c>
@@ -4505,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -4539,6 +4695,15 @@
       <c r="K64">
         <v>0.33</v>
       </c>
+      <c r="L64" s="1">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
       <c r="O64">
         <v>0</v>
       </c>
@@ -4561,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -4623,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -4685,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -4747,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -4809,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -4840,6 +5005,15 @@
       <c r="J69">
         <v>0</v>
       </c>
+      <c r="L69" s="1">
+        <v>4.2999999999999999E-13</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="N69" s="1">
+        <v>-770</v>
+      </c>
       <c r="O69">
         <v>0</v>
       </c>
@@ -4862,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -4927,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -4992,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -5054,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -5116,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -5178,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -5209,6 +5383,15 @@
       <c r="J75">
         <v>0</v>
       </c>
+      <c r="L75" s="1">
+        <v>6E-11</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
       <c r="O75">
         <v>0</v>
       </c>
@@ -5231,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -5293,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -5355,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -5417,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -5479,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -5541,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -5603,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -5665,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -5727,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>53</v>
       </c>
@@ -5789,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -5851,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -5913,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -5978,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -6012,6 +6195,15 @@
       <c r="K88">
         <v>0.33</v>
       </c>
+      <c r="L88" s="1">
+        <v>1.05E-10</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
       <c r="O88">
         <v>0</v>
       </c>
@@ -6034,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -6099,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>78</v>
       </c>
@@ -6161,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -6223,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -6285,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -6347,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -6409,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -6471,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -6533,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -6598,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -6632,6 +6824,15 @@
       <c r="K98">
         <v>0.5</v>
       </c>
+      <c r="L98" s="1">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
       <c r="O98">
         <v>0</v>
       </c>
@@ -6654,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -6716,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -6747,9 +6948,6 @@
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100">
-        <v>0.25</v>
-      </c>
       <c r="L100" s="1">
         <v>1.3100000000000001E-10</v>
       </c>
@@ -6781,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -6846,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -6911,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -6976,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -7008,7 +7206,16 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="L104" s="1">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="M104">
+        <v>-0.13</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -7032,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -7066,6 +7273,15 @@
       <c r="K105">
         <v>0.5</v>
       </c>
+      <c r="L105" s="1">
+        <v>2.0999999999999999E-12</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>554</v>
+      </c>
       <c r="O105">
         <v>0</v>
       </c>
@@ -7088,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -7119,6 +7335,18 @@
       <c r="J106">
         <v>0</v>
       </c>
+      <c r="K106">
+        <v>0.5</v>
+      </c>
+      <c r="L106" s="1">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>554</v>
+      </c>
       <c r="O106">
         <v>0</v>
       </c>
@@ -7141,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -7172,6 +7400,15 @@
       <c r="J107">
         <v>0</v>
       </c>
+      <c r="L107" s="1">
+        <v>3.9999999999999998E-11</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
       <c r="O107">
         <v>0</v>
       </c>
@@ -7194,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -7225,6 +7462,15 @@
       <c r="J108">
         <v>0</v>
       </c>
+      <c r="L108" s="1">
+        <v>6E-11</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
       <c r="O108">
         <v>0</v>
       </c>
@@ -7247,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -7278,6 +7524,15 @@
       <c r="J109">
         <v>0</v>
       </c>
+      <c r="L109" s="1">
+        <v>2.9E-11</v>
+      </c>
+      <c r="M109">
+        <v>-0.3</v>
+      </c>
+      <c r="N109" s="1">
+        <v>77</v>
+      </c>
       <c r="O109">
         <v>0</v>
       </c>
@@ -7300,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -7362,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -7393,6 +7648,15 @@
       <c r="J111">
         <v>0</v>
       </c>
+      <c r="L111" s="1">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
       <c r="O111">
         <v>0</v>
       </c>
@@ -7415,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -7446,6 +7710,15 @@
       <c r="J112">
         <v>0</v>
       </c>
+      <c r="L112" s="1">
+        <v>1.5E-11</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>257</v>
+      </c>
       <c r="O112">
         <v>0</v>
       </c>
@@ -7468,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -7530,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -7561,6 +7834,15 @@
       <c r="J114">
         <v>0</v>
       </c>
+      <c r="L114" s="1">
+        <v>9.1399999999999995E-33</v>
+      </c>
+      <c r="M114">
+        <v>-0.6</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
       <c r="O114">
         <v>0</v>
       </c>
@@ -7583,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -7614,6 +7896,15 @@
       <c r="J115">
         <v>0</v>
       </c>
+      <c r="L115" s="1">
+        <v>8.9000000000000002E-29</v>
+      </c>
+      <c r="M115">
+        <v>-0.18</v>
+      </c>
+      <c r="N115" s="1">
+        <v>-31.8</v>
+      </c>
       <c r="O115">
         <v>0</v>
       </c>
@@ -7636,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>56</v>
       </c>
@@ -7665,6 +7956,36 @@
         <v>1</v>
       </c>
       <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>-2080</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116" s="1">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0</v>
+      </c>
+      <c r="U116">
         <v>0</v>
       </c>
     </row>
@@ -7681,9 +8002,9 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7794,9 +8115,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7873,13 +8194,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF76566-3451-4152-A8DD-AC31325D9527}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebenezersolomon/Documents/GitHub/bluejay/Earth-Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B9AAE-7B96-E947-93D7-3730149D10FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5495CECF-66AB-4B73-98C6-F7910334FC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F49DAA0A-82A3-4B5F-9C2C-4D9969D3062E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{F49DAA0A-82A3-4B5F-9C2C-4D9969D3062E}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="2" r:id="rId1"/>
-    <sheet name="Ion reactions" sheetId="1" r:id="rId2"/>
+    <sheet name="Ion reactions" sheetId="4" r:id="rId2"/>
     <sheet name="Photodissociation" sheetId="3" r:id="rId3"/>
-    <sheet name="Photoionization" sheetId="4" r:id="rId4"/>
+    <sheet name="Photoionization" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="85">
   <si>
     <t>R1</t>
   </si>
@@ -59,6 +59,192 @@
     <t>type</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>kA</t>
+  </si>
+  <si>
+    <t>kB</t>
+  </si>
+  <si>
+    <t>kC</t>
+  </si>
+  <si>
+    <t>k0A</t>
+  </si>
+  <si>
+    <t>k0B</t>
+  </si>
+  <si>
+    <t>k0C</t>
+  </si>
+  <si>
+    <t>kradA</t>
+  </si>
+  <si>
+    <t>kradB</t>
+  </si>
+  <si>
+    <t>kradC</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>H2CO</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>HNO</t>
+  </si>
+  <si>
+    <t>NCO</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>e3CH2</t>
+  </si>
+  <si>
+    <t>HNCO</t>
+  </si>
+  <si>
+    <t>NH2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>HCN</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>C2H</t>
+  </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>C2H3</t>
+  </si>
+  <si>
+    <t>C2H4</t>
+  </si>
+  <si>
+    <t>Ch3</t>
+  </si>
+  <si>
+    <t>C3H3</t>
+  </si>
+  <si>
+    <t>HNC</t>
+  </si>
+  <si>
+    <t>H2CN</t>
+  </si>
+  <si>
+    <t>CH2NH</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>N2H2</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>CHCN</t>
+  </si>
+  <si>
+    <t>C2N</t>
+  </si>
+  <si>
+    <t>CH2CN</t>
+  </si>
+  <si>
+    <t>C2N2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3N</t>
+  </si>
+  <si>
+    <t>HCO</t>
+  </si>
+  <si>
+    <t>CH3O</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Trange</t>
+  </si>
+  <si>
+    <t>Added by</t>
+  </si>
+  <si>
     <t>rxnEnthalpy</t>
   </si>
   <si>
@@ -83,213 +269,12 @@
     <t>hotHD</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>pow</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>kA</t>
-  </si>
-  <si>
-    <t>kB</t>
-  </si>
-  <si>
-    <t>kC</t>
-  </si>
-  <si>
-    <t>k0A</t>
-  </si>
-  <si>
-    <t>k0B</t>
-  </si>
-  <si>
-    <t>k0C</t>
-  </si>
-  <si>
-    <t>kradA</t>
-  </si>
-  <si>
-    <t>kradB</t>
-  </si>
-  <si>
-    <t>kradC</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>T range</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Added by </t>
   </si>
   <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>CH3</t>
-  </si>
-  <si>
-    <t>N(4S)</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>N(2D)</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>H2CO</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>HNO</t>
-  </si>
-  <si>
-    <t>NCO</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>e3CH2</t>
-  </si>
-  <si>
-    <t>HNCO</t>
-  </si>
-  <si>
-    <t>NH2</t>
-  </si>
-  <si>
-    <t>O(3P)</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>HCN</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>C2H</t>
-  </si>
-  <si>
-    <t>C2H2</t>
-  </si>
-  <si>
-    <t>C2H3</t>
-  </si>
-  <si>
-    <t>C2H4</t>
-  </si>
-  <si>
-    <t>Ch3</t>
-  </si>
-  <si>
-    <t>C3H3</t>
-  </si>
-  <si>
-    <t>HNC</t>
-  </si>
-  <si>
-    <t>H2CN</t>
-  </si>
-  <si>
-    <t>CH2NH</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>N2H2</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>CHCN</t>
-  </si>
-  <si>
-    <t>C2N</t>
-  </si>
-  <si>
-    <t>CH2CN</t>
-  </si>
-  <si>
-    <t>C2N2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3N</t>
-  </si>
-  <si>
-    <t>HCO</t>
-  </si>
-  <si>
-    <t>O(1D)</t>
-  </si>
-  <si>
-    <t>CH3O</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Trange</t>
-  </si>
-  <si>
-    <t>Added by</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -297,6 +282,18 @@
   </si>
   <si>
     <t>Ions</t>
+  </si>
+  <si>
+    <t>N4S</t>
+  </si>
+  <si>
+    <t>N2D</t>
+  </si>
+  <si>
+    <t>O3P</t>
+  </si>
+  <si>
+    <t>O1D</t>
   </si>
 </sst>
 </file>
@@ -671,13 +668,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54FE042-F072-4117-BA7D-F060653EB408}">
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="V116" sqref="V116"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -700,78 +697,72 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>-2</v>
@@ -816,24 +807,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>-4</v>
@@ -878,24 +863,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>-4</v>
@@ -940,24 +919,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>-4</v>
@@ -1002,24 +975,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>-4</v>
@@ -1064,24 +1031,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>-4</v>
@@ -1126,24 +1087,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>-4</v>
@@ -1191,24 +1146,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>-4</v>
@@ -1256,24 +1205,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>-4</v>
@@ -1318,24 +1261,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>-4</v>
@@ -1383,24 +1320,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>-4</v>
@@ -1448,24 +1379,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>-4</v>
@@ -1510,24 +1438,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G14">
         <v>-4</v>
@@ -1572,24 +1494,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>-4</v>
@@ -1637,24 +1553,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>-4</v>
@@ -1702,24 +1612,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G17">
         <v>-4</v>
@@ -1767,24 +1671,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>-4</v>
@@ -1832,24 +1730,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G19">
         <v>-4</v>
@@ -1894,24 +1786,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>-4</v>
@@ -1956,24 +1842,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>-4</v>
@@ -2018,24 +1898,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>-4</v>
@@ -2080,24 +1954,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>-4</v>
@@ -2142,24 +2010,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
       <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>-4</v>
@@ -2207,24 +2069,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <v>-4</v>
@@ -2272,24 +2128,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>-4</v>
@@ -2337,24 +2187,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <v>-4</v>
@@ -2402,24 +2246,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G28">
         <v>-4</v>
@@ -2464,24 +2305,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <v>-4</v>
@@ -2526,24 +2361,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>-4</v>
@@ -2591,24 +2420,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>-4</v>
@@ -2656,24 +2479,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>-4</v>
@@ -2718,24 +2535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -2780,24 +2585,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G34">
         <v>-4</v>
@@ -2842,24 +2641,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G35">
         <v>-4</v>
@@ -2904,24 +2697,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G36">
         <v>-4</v>
@@ -2966,24 +2753,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>-4</v>
@@ -3028,24 +2809,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G38">
         <v>-4</v>
@@ -3090,24 +2865,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>-4</v>
@@ -3152,24 +2921,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>-4</v>
@@ -3214,24 +2977,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G41">
         <v>-4</v>
@@ -3279,24 +3036,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G42">
         <v>-4</v>
@@ -3344,24 +3095,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G43">
         <v>-4</v>
@@ -3409,24 +3154,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G44">
         <v>-4</v>
@@ -3474,24 +3213,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G45">
         <v>-4</v>
@@ -3539,24 +3275,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G46">
         <v>-4</v>
@@ -3601,24 +3331,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G47">
         <v>-4</v>
@@ -3663,24 +3387,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G48">
         <v>-4</v>
@@ -3725,24 +3446,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G49">
         <v>-4</v>
@@ -3787,24 +3502,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G50">
         <v>-4</v>
@@ -3849,24 +3558,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>-4</v>
@@ -3911,24 +3614,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G52">
         <v>-4</v>
@@ -3973,24 +3670,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G53">
         <v>-4</v>
@@ -4035,24 +3726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G54">
         <v>-4</v>
@@ -4097,24 +3782,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G55">
         <v>-4</v>
@@ -4159,24 +3838,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>-4</v>
@@ -4221,24 +3894,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G57">
         <v>-4</v>
@@ -4283,24 +3950,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G58">
         <v>-4</v>
@@ -4345,24 +4006,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G59">
         <v>-4</v>
@@ -4407,24 +4062,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G60">
         <v>-4</v>
@@ -4469,24 +4118,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G61">
         <v>-4</v>
@@ -4531,24 +4174,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>-4</v>
@@ -4596,24 +4233,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>-4</v>
@@ -4661,24 +4292,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G64">
         <v>-4</v>
@@ -4726,24 +4351,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G65">
         <v>-4</v>
@@ -4788,24 +4407,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G66">
         <v>-4</v>
@@ -4850,24 +4463,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G67">
         <v>-4</v>
@@ -4912,24 +4519,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>-4</v>
@@ -4974,24 +4575,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G69">
         <v>-4</v>
@@ -5036,24 +4631,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G70">
         <v>-4</v>
@@ -5101,24 +4690,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G71">
         <v>-4</v>
@@ -5166,24 +4749,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G72">
         <v>-4</v>
@@ -5228,24 +4805,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G73">
         <v>-4</v>
@@ -5290,24 +4861,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G74">
         <v>-4</v>
@@ -5352,24 +4917,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G75">
         <v>-4</v>
@@ -5414,24 +4973,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>-4</v>
@@ -5476,24 +5029,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G77">
         <v>-4</v>
@@ -5538,24 +5085,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G78">
         <v>-4</v>
@@ -5600,24 +5144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
-      </c>
-      <c r="F79" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G79">
         <v>-4</v>
@@ -5662,24 +5200,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G80">
         <v>-4</v>
@@ -5724,24 +5256,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G81">
         <v>-4</v>
@@ -5786,24 +5315,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G82">
         <v>-4</v>
@@ -5848,24 +5371,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C83" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G83">
         <v>-4</v>
@@ -5910,24 +5430,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G84">
         <v>-4</v>
@@ -5972,24 +5486,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G85">
         <v>-4</v>
@@ -6034,24 +5542,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>-4</v>
@@ -6096,24 +5598,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G87">
         <v>-4</v>
@@ -6161,24 +5657,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G88">
         <v>-4</v>
@@ -6226,24 +5716,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G89">
         <v>-4</v>
@@ -6291,24 +5775,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G90">
         <v>-4</v>
@@ -6353,24 +5831,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>-4</v>
@@ -6415,24 +5887,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G92">
         <v>-4</v>
@@ -6477,24 +5943,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G93">
         <v>-4</v>
@@ -6539,24 +5999,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G94">
         <v>-4</v>
@@ -6601,24 +6055,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G95">
         <v>-4</v>
@@ -6663,24 +6111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G96">
         <v>-5</v>
@@ -6725,24 +6167,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
-      </c>
-      <c r="C97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
-      </c>
-      <c r="F97" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G97">
         <v>-4</v>
@@ -6790,24 +6226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
-      </c>
-      <c r="F98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>-4</v>
@@ -6855,24 +6285,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" t="s">
         <v>34</v>
       </c>
-      <c r="B99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" t="s">
-        <v>47</v>
-      </c>
       <c r="E99" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G99">
         <v>-4</v>
@@ -6917,24 +6341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D100" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G100">
         <v>-4</v>
@@ -6979,24 +6397,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G101">
         <v>-4</v>
@@ -7044,24 +6456,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
-      </c>
-      <c r="C102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G102">
         <v>-4</v>
@@ -7109,24 +6515,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G103">
         <v>-4</v>
@@ -7174,23 +6574,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>49</v>
-      </c>
-      <c r="F104" t="s">
         <v>36</v>
       </c>
       <c r="G104">
@@ -7239,24 +6633,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G105">
         <v>-4</v>
@@ -7304,24 +6692,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
-      </c>
-      <c r="F106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>-4</v>
@@ -7369,24 +6751,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" t="s">
         <v>40</v>
-      </c>
-      <c r="B107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" t="s">
-        <v>54</v>
-      </c>
-      <c r="F107" t="s">
-        <v>36</v>
       </c>
       <c r="G107">
         <v>-4</v>
@@ -7431,24 +6807,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" t="s">
         <v>40</v>
-      </c>
-      <c r="B108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
       </c>
       <c r="G108">
         <v>-4</v>
@@ -7493,24 +6863,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
-      </c>
-      <c r="F109" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G109">
         <v>-4</v>
@@ -7555,24 +6919,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
         <v>40</v>
-      </c>
-      <c r="B110" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" t="s">
-        <v>36</v>
       </c>
       <c r="G110">
         <v>-4</v>
@@ -7617,24 +6975,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
-      </c>
-      <c r="F111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>-4</v>
@@ -7679,24 +7031,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C112" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>-4</v>
@@ -7741,24 +7087,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
-      </c>
-      <c r="F113" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G113">
         <v>-4</v>
@@ -7803,24 +7143,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G114">
         <v>-4</v>
@@ -7865,24 +7196,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G115">
         <v>-4</v>
@@ -7927,24 +7249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
-      </c>
-      <c r="E116" t="s">
-        <v>36</v>
-      </c>
-      <c r="F116" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G116">
         <v>-4</v>
@@ -7995,16 +7308,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803F1D73-C38C-435D-A645-059E7629262E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BD2702-A4F0-4C8E-9DB2-64CA916969A9}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8024,82 +7337,82 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -8108,81 +7421,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C7270-226C-4817-A83A-00D22CC02163}">
-  <dimension ref="A1:V1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91663CE6-B030-4C9E-9E5F-0C25B371E07A}">
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -8191,16 +7534,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF76566-3451-4152-A8DD-AC31325D9527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68034D73-046A-4AFB-830A-D5C3819482CF}">
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8214,58 +7557,58 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
       <c r="T1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebenezersolomon/Documents/GitHub/bluejay/Earth-Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477D172-F7D2-E041-A9D5-AAA6B936073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294DE853-05BC-734D-A918-AF36ADBB6086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F49DAA0A-82A3-4B5F-9C2C-4D9969D3062E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="91">
   <si>
     <t>R1</t>
   </si>
@@ -170,9 +170,6 @@
     <t>HCN</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>CH2</t>
   </si>
   <si>
@@ -221,12 +218,6 @@
     <t>C2N2</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3N</t>
-  </si>
-  <si>
     <t>HCO</t>
   </si>
   <si>
@@ -303,19 +294,44 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>95 - 5000</t>
+  </si>
+  <si>
+    <t>Spanel93</t>
+  </si>
+  <si>
+    <t>Comparable to Jane Fox’s rate</t>
+  </si>
+  <si>
+    <t>Yelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,9 +354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54FE042-F072-4117-BA7D-F060653EB408}">
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G83" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -748,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s">
         <v>20</v>
@@ -757,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -768,7 +785,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -777,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -827,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -854,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>1.2400000000000001E-10</v>
-      </c>
-      <c r="M3">
-        <v>0.26</v>
+        <v>2.1999999999999999E-10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -889,10 +906,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -901,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -916,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>2.1999999999999999E-10</v>
+        <v>8.6100000000000003E-10</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.32</v>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8000</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -951,19 +968,19 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -978,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>8.6100000000000003E-10</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-0.56000000000000005</v>
+        <v>7.3400000000000006E-12</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>8000</v>
+        <v>4410</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1013,19 +1030,19 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1040,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>7.3400000000000006E-12</v>
+        <v>2.8999999999999998E-10</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>4410</v>
+        <v>1670</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1072,22 +1089,22 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1101,14 +1118,17 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
       <c r="L7" s="1">
-        <v>2.8999999999999998E-10</v>
+        <v>3.1000000000000002E-10</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1670</v>
+        <v>1650</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1137,19 +1157,19 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1167,13 +1187,13 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="1">
-        <v>3.1000000000000002E-10</v>
+        <v>2.0000000000000001E-10</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1202,10 +1222,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -1214,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1267,19 +1287,19 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1293,8 +1313,11 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
       <c r="L10" s="1">
-        <v>1.9999999999999999E-11</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1329,19 +1352,19 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1355,17 +1378,14 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
       <c r="L11" s="1">
-        <v>2.0000000000000001E-10</v>
+        <v>1.06E-10</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-10.4</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>36.1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1394,10 +1414,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1406,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1420,17 +1440,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
       <c r="L12" s="1">
-        <v>9.9999999999999994E-12</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>4870</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1456,22 +1473,22 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1486,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1.06E-10</v>
+        <v>2.1399999999999998E-11</v>
       </c>
       <c r="M13">
-        <v>-10.4</v>
+        <v>-1.93</v>
       </c>
       <c r="N13" s="1">
-        <v>36.1</v>
+        <v>63.5</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1518,22 +1535,22 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1547,14 +1564,17 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
       <c r="L14" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>7.1299999999999997E-12</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>4870</v>
+        <v>5050</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1580,22 +1600,22 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1609,14 +1629,17 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
       <c r="L15" s="1">
-        <v>2.1399999999999998E-11</v>
+        <v>5.4999999999999996E-9</v>
       </c>
       <c r="M15">
-        <v>-1.93</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>63.5</v>
+        <v>4570</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1642,22 +1665,22 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1675,13 +1698,13 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="1">
-        <v>7.1299999999999997E-12</v>
+        <v>1.5000000000000001E-12</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>5050</v>
+        <v>3330</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1707,22 +1730,22 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1740,13 +1763,13 @@
         <v>0.5</v>
       </c>
       <c r="L17" s="1">
-        <v>5.4999999999999996E-9</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>6.5500000000000002E-12</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.17</v>
       </c>
       <c r="N17" s="1">
-        <v>4570</v>
+        <v>-153</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1772,22 +1795,22 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1801,17 +1824,14 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
       <c r="L18" s="1">
-        <v>1.5000000000000001E-12</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>1.6900000000000001E-10</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-0.53</v>
       </c>
       <c r="N18" s="1">
-        <v>3330</v>
+        <v>150</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1837,22 +1857,22 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -1866,17 +1886,14 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
       <c r="L19" s="1">
-        <v>6.5500000000000002E-12</v>
+        <v>7.8699999999999997E-11</v>
       </c>
       <c r="M19" s="1">
-        <v>1.17</v>
+        <v>-0.46700000000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-153</v>
+        <v>28.8</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1902,22 +1919,22 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1932,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>1.6900000000000001E-10</v>
+        <v>2.5099999999999999E-13</v>
       </c>
       <c r="M20" s="1">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>150</v>
+        <v>4210</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1964,22 +1981,22 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1994,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>7.8699999999999997E-11</v>
+        <v>1.4000000000000001E-10</v>
       </c>
       <c r="M21" s="1">
-        <v>-0.46700000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="N21" s="1">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2026,22 +2043,22 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2055,14 +2072,17 @@
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
       <c r="L22" s="1">
-        <v>2.5099999999999999E-13</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N22" s="1">
-        <v>4210</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2088,22 +2108,22 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2117,11 +2137,14 @@
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
       <c r="L23" s="1">
-        <v>1.4000000000000001E-10</v>
+        <v>3E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -2150,22 +2173,22 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2183,7 +2206,7 @@
         <v>0.5</v>
       </c>
       <c r="L24" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>5.6E-11</v>
       </c>
       <c r="M24" s="1">
         <v>0.17</v>
@@ -2215,22 +2238,22 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -2248,7 +2271,7 @@
         <v>0.5</v>
       </c>
       <c r="L25" s="1">
-        <v>3E-11</v>
+        <v>6.0000000000000003E-12</v>
       </c>
       <c r="M25" s="1">
         <v>0.17</v>
@@ -2280,22 +2303,22 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2309,14 +2332,11 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
       <c r="L26" s="1">
-        <v>5.6E-11</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M26" s="1">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -2345,22 +2365,22 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2374,14 +2394,11 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0.5</v>
-      </c>
       <c r="L27" s="1">
-        <v>6.0000000000000003E-12</v>
+        <v>8.8000000000000006E-11</v>
       </c>
       <c r="M27" s="1">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -2410,22 +2427,22 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -2439,11 +2456,14 @@
       <c r="J28">
         <v>0</v>
       </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
       <c r="L28" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="M28" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -2472,22 +2492,22 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -2502,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>8.8000000000000006E-11</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="M29" s="1">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2534,22 +2554,16 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -2563,17 +2577,14 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
       <c r="L30" s="1">
-        <v>3.9999999999999998E-11</v>
+        <v>3.3599999999999998E-12</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2599,22 +2610,22 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -2628,17 +2639,14 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>0.5</v>
-      </c>
       <c r="L31" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>1.5999999999999999E-10</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2664,22 +2672,22 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -2694,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>1.1999999999999999E-12</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -2726,16 +2734,22 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -2750,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>3.3599999999999998E-12</v>
+        <v>1.4399999999999999E-12</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -2782,22 +2796,22 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -2812,13 +2826,13 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>1.5999999999999999E-10</v>
+        <v>1E-13</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>267</v>
+        <v>520</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2844,22 +2858,22 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -2874,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>1.1999999999999999E-12</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -2906,22 +2920,22 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -2936,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>1.4399999999999999E-12</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2968,22 +2982,22 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -2998,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>1E-13</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>520</v>
+        <v>1.6999999999999999E-11</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3030,22 +3044,22 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3058,14 +3072,17 @@
       </c>
       <c r="J38">
         <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
       </c>
       <c r="L38" s="1">
         <v>5.0000000000000002E-11</v>
       </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
@@ -3092,22 +3109,22 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3120,14 +3137,17 @@
       </c>
       <c r="J39">
         <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
       </c>
       <c r="L39" s="1">
         <v>5.0000000000000002E-11</v>
       </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
@@ -3154,22 +3174,22 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3183,8 +3203,11 @@
       <c r="J40">
         <v>0</v>
       </c>
+      <c r="K40">
+        <v>0.33</v>
+      </c>
       <c r="L40" s="1">
-        <v>1.6999999999999999E-11</v>
+        <v>3E-11</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3219,19 +3242,19 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" t="s">
-        <v>23</v>
-      </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3246,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L41" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>3E-11</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3284,19 +3307,19 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -3311,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L42" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3349,19 +3372,19 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3375,14 +3398,11 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0.33</v>
-      </c>
       <c r="L43" s="1">
-        <v>3E-11</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
+        <v>1.2999999999999999E-10</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.17</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3414,10 +3434,10 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
         <v>51</v>
@@ -3426,7 +3446,7 @@
         <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -3440,11 +3460,8 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>0.33</v>
-      </c>
       <c r="L44" s="1">
-        <v>3E-11</v>
+        <v>1.1599999999999999E-9</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3479,13 +3496,13 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
@@ -3505,11 +3522,8 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0.33</v>
-      </c>
       <c r="L45" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>2.0000000000000001E-10</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3544,19 +3558,19 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3571,9 +3585,9 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>1.2999999999999999E-10</v>
-      </c>
-      <c r="M46" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="M46">
         <v>0.17</v>
       </c>
       <c r="N46">
@@ -3606,19 +3620,19 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -3633,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>1.1599999999999999E-9</v>
+        <v>1E-10</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3668,19 +3682,19 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -3695,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>2.0000000000000001E-10</v>
+        <v>1.7600000000000001E-13</v>
       </c>
       <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
+        <v>2.23</v>
+      </c>
+      <c r="N48" s="1">
+        <v>3610</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -3727,22 +3741,22 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3757,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>1E-10</v>
-      </c>
-      <c r="M49">
-        <v>0.17</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
+        <v>5.2499999999999996E-12</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2200</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3789,22 +3803,22 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
         <v>33</v>
       </c>
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -3819,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>1E-10</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
+        <v>3.9899999999999999E-14</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4540</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -3851,22 +3865,22 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -3881,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>1.7600000000000001E-13</v>
+        <v>1.1099999999999999E-13</v>
       </c>
       <c r="M51">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="N51" s="1">
-        <v>3610</v>
+        <v>1850</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3916,19 +3930,19 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -3943,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>5.2499999999999996E-12</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0.79</v>
+        <v>1.1099999999999999E-13</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
       </c>
       <c r="N52" s="1">
-        <v>2200</v>
+        <v>-1850</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -3978,19 +3992,19 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -4005,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>3.9899999999999999E-14</v>
-      </c>
-      <c r="M53" s="1">
-        <v>3.59</v>
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
       </c>
       <c r="N53" s="1">
-        <v>4540</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4040,19 +4054,19 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -4067,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>1.1099999999999999E-13</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
+        <v>6.5400000000000004E-13</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2.76</v>
       </c>
       <c r="N54" s="1">
-        <v>1850</v>
+        <v>5170</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -4099,22 +4113,22 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -4129,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>1.1099999999999999E-13</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
+        <v>1.5199999999999999E-10</v>
+      </c>
+      <c r="M55" s="1">
+        <v>-0.05</v>
       </c>
       <c r="N55" s="1">
-        <v>-1850</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -4161,22 +4175,22 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -4191,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>1.9999999999999999E-11</v>
+        <v>9.5499999999999997E-14</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4223,22 +4237,22 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G57">
         <v>4</v>
@@ -4253,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>6.5400000000000004E-13</v>
+        <v>4.9600000000000001E-13</v>
       </c>
       <c r="M57" s="1">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="N57" s="1">
-        <v>5170</v>
+        <v>960</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4285,22 +4299,22 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
         <v>25</v>
       </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" t="s">
-        <v>23</v>
-      </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -4315,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>1.5199999999999999E-10</v>
+        <v>4.1200000000000001E-13</v>
       </c>
       <c r="M58" s="1">
-        <v>-0.05</v>
+        <v>2.87</v>
       </c>
       <c r="N58" s="1">
-        <v>0</v>
+        <v>-820</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4347,22 +4361,22 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
         <v>31</v>
       </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s">
-        <v>25</v>
-      </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -4376,14 +4390,17 @@
       <c r="J59">
         <v>0</v>
       </c>
+      <c r="K59">
+        <v>0.33</v>
+      </c>
       <c r="L59" s="1">
-        <v>9.5499999999999997E-14</v>
-      </c>
-      <c r="M59">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M59" s="1">
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4409,22 +4426,22 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -4438,14 +4455,17 @@
       <c r="J60">
         <v>0</v>
       </c>
+      <c r="K60">
+        <v>0.33</v>
+      </c>
       <c r="L60" s="1">
-        <v>4.9600000000000001E-13</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M60" s="1">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N60" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4474,19 +4494,19 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" t="s">
         <v>23</v>
       </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" t="s">
-        <v>25</v>
-      </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -4501,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>4.1200000000000001E-13</v>
-      </c>
-      <c r="M61" s="1">
-        <v>2.87</v>
-      </c>
-      <c r="N61" s="1">
-        <v>-820</v>
+        <v>1E-10</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4536,19 +4556,19 @@
         <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -4562,17 +4582,14 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
-        <v>0.33</v>
-      </c>
       <c r="L62" s="1">
-        <v>5.2999999999999996E-12</v>
-      </c>
-      <c r="M62" s="1">
+        <v>6.2000000000000002E-12</v>
+      </c>
+      <c r="M62">
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <v>2500</v>
+        <v>735</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -4601,19 +4618,19 @@
         <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
         <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -4627,16 +4644,13 @@
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63">
-        <v>0.33</v>
-      </c>
       <c r="L63" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>2.7699999999999999E-11</v>
       </c>
       <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1">
+        <v>-0.85</v>
+      </c>
+      <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
@@ -4666,19 +4680,19 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -4692,17 +4706,14 @@
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>0.33</v>
-      </c>
       <c r="L64" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>4.2999999999999999E-13</v>
       </c>
       <c r="M64" s="1">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="N64" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -4731,19 +4742,19 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -4758,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <v>1E-10</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
+        <v>4.2999999999999999E-13</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="N65" s="1">
+        <v>-770</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -4793,10 +4804,10 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
         <v>58</v>
@@ -4805,7 +4816,7 @@
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -4819,14 +4830,17 @@
       <c r="J66">
         <v>0</v>
       </c>
+      <c r="K66">
+        <v>0.5</v>
+      </c>
       <c r="L66" s="1">
-        <v>6.2000000000000002E-12</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -4852,22 +4866,22 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -4881,11 +4895,14 @@
       <c r="J67">
         <v>0</v>
       </c>
+      <c r="K67">
+        <v>0.5</v>
+      </c>
       <c r="L67" s="1">
-        <v>2.7699999999999999E-11</v>
-      </c>
-      <c r="M67" s="1">
-        <v>-0.85</v>
+        <v>1.4000000000000001E-10</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4914,22 +4931,22 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -4944,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <v>4.2999999999999999E-13</v>
-      </c>
-      <c r="M68" s="1">
-        <v>1.71</v>
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
       </c>
       <c r="N68" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -4976,22 +4993,22 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
         <v>42</v>
-      </c>
-      <c r="C69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" t="s">
-        <v>59</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -5006,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <v>4.2999999999999999E-13</v>
-      </c>
-      <c r="M69" s="1">
-        <v>1.71</v>
+        <v>6E-11</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
       </c>
       <c r="N69" s="1">
-        <v>-770</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -5038,22 +5055,22 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -5067,11 +5084,8 @@
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70">
-        <v>0.5</v>
-      </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>6E-11</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -5103,22 +5117,22 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
         <v>42</v>
       </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" t="s">
-        <v>25</v>
-      </c>
       <c r="F71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -5132,16 +5146,13 @@
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71">
-        <v>0.5</v>
-      </c>
       <c r="L71" s="1">
-        <v>1.4000000000000001E-10</v>
+        <v>2E-12</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="1">
         <v>0</v>
       </c>
       <c r="O71">
@@ -5168,22 +5179,22 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -5198,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <v>2.0000000000000001E-10</v>
+        <v>1E-10</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -5230,22 +5241,22 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -5260,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <v>1E-10</v>
+        <v>3.9999999999999998E-11</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -5292,22 +5303,22 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -5322,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <v>6E-11</v>
+        <v>2E-12</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -5354,22 +5365,22 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" t="s">
         <v>25</v>
       </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" t="s">
-        <v>23</v>
-      </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -5384,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <v>6E-11</v>
+        <v>1E-10</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5416,22 +5427,22 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G76">
         <v>4</v>
@@ -5446,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <v>2E-12</v>
+        <v>3.9999999999999998E-11</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5478,22 +5489,22 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -5508,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <v>1E-10</v>
+        <v>2.2000000000000002E-11</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -5540,19 +5551,19 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
         <v>25</v>
@@ -5570,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <v>3.9999999999999998E-11</v>
+        <v>1.08E-10</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -5602,22 +5613,22 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -5632,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <v>2E-12</v>
+        <v>6.6000000000000005E-11</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5664,22 +5675,22 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
         <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -5694,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <v>1E-10</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
+        <v>3.7700000000000003E-11</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-0.08</v>
       </c>
       <c r="N80" s="1">
         <v>0</v>
@@ -5726,22 +5737,22 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -5756,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <v>3.9999999999999998E-11</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
+        <v>1.09E-10</v>
+      </c>
+      <c r="M81" s="1">
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="N81" s="1">
         <v>0</v>
@@ -5788,22 +5799,22 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -5817,8 +5828,11 @@
       <c r="J82">
         <v>0</v>
       </c>
+      <c r="K82">
+        <v>0.33</v>
+      </c>
       <c r="L82" s="1">
-        <v>2.2000000000000002E-11</v>
+        <v>1.05E-10</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5850,22 +5864,22 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -5879,8 +5893,11 @@
       <c r="J83">
         <v>0</v>
       </c>
+      <c r="K83">
+        <v>0.33</v>
+      </c>
       <c r="L83" s="1">
-        <v>1.08E-10</v>
+        <v>1.05E-10</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5912,22 +5929,22 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
         <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G84">
         <v>4</v>
@@ -5941,8 +5958,11 @@
       <c r="J84">
         <v>0</v>
       </c>
+      <c r="K84">
+        <v>0.33</v>
+      </c>
       <c r="L84" s="1">
-        <v>6.6000000000000005E-11</v>
+        <v>7.5E-12</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5974,22 +5994,22 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -6004,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <v>3.7700000000000003E-11</v>
+        <v>3.1999999999999999E-11</v>
       </c>
       <c r="M85" s="1">
-        <v>-0.08</v>
+        <v>-0.432</v>
       </c>
       <c r="N85" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -6036,22 +6056,22 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G86">
         <v>4</v>
@@ -6066,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <v>1.09E-10</v>
-      </c>
-      <c r="M86" s="1">
-        <v>4.9399999999999999E-2</v>
+        <v>2.0999999999999999E-12</v>
+      </c>
+      <c r="M86">
+        <v>1.52</v>
       </c>
       <c r="N86" s="1">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -6098,22 +6118,22 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -6127,17 +6147,14 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="K87">
-        <v>0.33</v>
-      </c>
       <c r="L87" s="1">
-        <v>1.05E-10</v>
+        <v>5.6999999999999999E-13</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="N87" s="1">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -6163,22 +6180,22 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
         <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -6192,17 +6209,14 @@
       <c r="J88">
         <v>0</v>
       </c>
-      <c r="K88">
-        <v>0.33</v>
-      </c>
       <c r="L88" s="1">
-        <v>1.05E-10</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -6228,22 +6242,22 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s">
         <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -6257,17 +6271,14 @@
       <c r="J89">
         <v>0</v>
       </c>
-      <c r="K89">
-        <v>0.33</v>
-      </c>
       <c r="L89" s="1">
-        <v>7.5E-12</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -6293,22 +6304,22 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -6323,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <v>3.1999999999999999E-11</v>
-      </c>
-      <c r="M90" s="1">
-        <v>-0.432</v>
+        <v>2.8100000000000001E-13</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
       </c>
       <c r="N90" s="1">
-        <v>-1</v>
+        <v>176</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -6355,22 +6366,22 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G91">
         <v>4</v>
@@ -6385,13 +6396,13 @@
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <v>2.0999999999999999E-12</v>
-      </c>
-      <c r="M91">
-        <v>1.52</v>
+        <v>2.8E-11</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-1.22</v>
       </c>
       <c r="N91" s="1">
-        <v>1740</v>
+        <v>12</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -6417,22 +6428,22 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -6446,14 +6457,17 @@
       <c r="J92">
         <v>0</v>
       </c>
+      <c r="K92">
+        <v>0.5</v>
+      </c>
       <c r="L92" s="1">
-        <v>5.6999999999999999E-13</v>
+        <v>6.0799999999999999E-11</v>
       </c>
       <c r="M92">
-        <v>2.1800000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="N92" s="1">
-        <v>1350</v>
+        <v>19300</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -6479,22 +6493,22 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" t="s">
         <v>22</v>
       </c>
-      <c r="B93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -6508,14 +6522,17 @@
       <c r="J93">
         <v>0</v>
       </c>
+      <c r="K93">
+        <v>0.5</v>
+      </c>
       <c r="L93" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -6541,22 +6558,22 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -6571,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>3.5999999999999998E-13</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -6603,22 +6620,22 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" t="s">
         <v>28</v>
       </c>
-      <c r="E95" t="s">
-        <v>25</v>
-      </c>
       <c r="F95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -6633,13 +6650,13 @@
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <v>2.8100000000000001E-13</v>
+        <v>1.3100000000000001E-10</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95" s="1">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -6665,22 +6682,22 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -6694,14 +6711,17 @@
       <c r="J96">
         <v>0</v>
       </c>
+      <c r="K96">
+        <v>0.25</v>
+      </c>
       <c r="L96" s="1">
-        <v>2.8E-11</v>
-      </c>
-      <c r="M96" s="1">
-        <v>-1.22</v>
+        <v>2.4699999999999999E-11</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
       </c>
       <c r="N96" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6727,22 +6747,22 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -6757,16 +6777,16 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L97" s="1">
-        <v>6.0799999999999999E-11</v>
+        <v>1.52E-11</v>
       </c>
       <c r="M97">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="N97" s="1">
-        <v>19300</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6792,22 +6812,22 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -6822,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L98" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>1.9E-12</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -6857,22 +6877,22 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -6886,11 +6906,14 @@
       <c r="J99">
         <v>0</v>
       </c>
+      <c r="K99">
+        <v>0.25</v>
+      </c>
       <c r="L99" s="1">
-        <v>3.5999999999999998E-13</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="N99" s="1">
         <v>0</v>
@@ -6919,22 +6942,22 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -6948,14 +6971,17 @@
       <c r="J100">
         <v>0</v>
       </c>
+      <c r="K100">
+        <v>0.5</v>
+      </c>
       <c r="L100" s="1">
-        <v>1.3100000000000001E-10</v>
+        <v>2.0999999999999999E-12</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -6984,19 +7010,19 @@
         <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -7011,16 +7037,16 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L101" s="1">
-        <v>2.4699999999999999E-11</v>
+        <v>2.9999999999999998E-13</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101" s="1">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -7049,19 +7075,19 @@
         <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G102">
         <v>4</v>
@@ -7075,11 +7101,8 @@
       <c r="J102">
         <v>0</v>
       </c>
-      <c r="K102">
-        <v>0.25</v>
-      </c>
       <c r="L102" s="1">
-        <v>1.52E-11</v>
+        <v>3.9999999999999998E-11</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -7114,19 +7137,19 @@
         <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G103">
         <v>4</v>
@@ -7140,11 +7163,8 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="K103">
-        <v>0.25</v>
-      </c>
       <c r="L103" s="1">
-        <v>1.9E-12</v>
+        <v>6E-11</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7179,19 +7199,19 @@
         <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G104">
         <v>4</v>
@@ -7205,17 +7225,14 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104">
-        <v>0.25</v>
-      </c>
       <c r="L104" s="1">
-        <v>9.9999999999999994E-12</v>
+        <v>2.9E-11</v>
       </c>
       <c r="M104">
-        <v>-0.13</v>
+        <v>-0.3</v>
       </c>
       <c r="N104" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -7244,19 +7261,19 @@
         <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -7270,17 +7287,14 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="K105">
+      <c r="L105" s="1">
+        <v>2.94E-12</v>
+      </c>
+      <c r="M105" s="1">
         <v>0.5</v>
       </c>
-      <c r="L105" s="1">
-        <v>2.0999999999999999E-12</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
       <c r="N105" s="1">
-        <v>554</v>
+        <v>1000</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -7306,22 +7320,22 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" t="s">
         <v>28</v>
       </c>
-      <c r="B106" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" t="s">
-        <v>29</v>
-      </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -7335,17 +7349,14 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="K106">
-        <v>0.5</v>
-      </c>
       <c r="L106" s="1">
-        <v>2.9999999999999998E-13</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -7371,22 +7382,22 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107" t="s">
         <v>28</v>
       </c>
-      <c r="B107" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" t="s">
-        <v>81</v>
-      </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -7401,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <v>3.9999999999999998E-11</v>
+        <v>1.5E-11</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107" s="1">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -7433,22 +7444,22 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
         <v>28</v>
       </c>
-      <c r="B108" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" t="s">
-        <v>40</v>
-      </c>
       <c r="F108" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -7463,12 +7474,12 @@
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <v>6E-11</v>
+        <v>6.6159299999999999E+27</v>
       </c>
       <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108" s="1">
+        <v>-2.27</v>
+      </c>
+      <c r="N108">
         <v>0</v>
       </c>
       <c r="O108">
@@ -7495,22 +7506,22 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -7525,13 +7536,13 @@
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <v>2.9E-11</v>
+        <v>9.1399999999999995E-33</v>
       </c>
       <c r="M109">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="N109" s="1">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -7557,22 +7568,22 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -7587,13 +7598,13 @@
         <v>0</v>
       </c>
       <c r="L110" s="1">
-        <v>2.94E-12</v>
-      </c>
-      <c r="M110" s="1">
-        <v>0.5</v>
+        <v>8.9000000000000005E+29</v>
+      </c>
+      <c r="M110">
+        <v>-0.18</v>
       </c>
       <c r="N110" s="1">
-        <v>1000</v>
+        <v>-31.8</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -7619,25 +7630,25 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F111" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -7649,343 +7660,33 @@
         <v>0</v>
       </c>
       <c r="L111" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>0.1</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111" s="1">
-        <v>0</v>
+        <v>-2080</v>
       </c>
       <c r="O111">
         <v>0</v>
       </c>
-      <c r="P111">
+      <c r="P111" s="1">
         <v>0</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="1">
         <v>0</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="1">
         <v>0</v>
       </c>
       <c r="U111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>41</v>
-      </c>
-      <c r="B112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" t="s">
-        <v>28</v>
-      </c>
-      <c r="E112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112" t="s">
-        <v>83</v>
-      </c>
-      <c r="G112">
-        <v>4</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="L112" s="1">
-        <v>1.5E-11</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112" s="1">
-        <v>257</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>0</v>
-      </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>41</v>
-      </c>
-      <c r="B113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113">
-        <v>4</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="L113" s="1">
-        <v>6.6159299999999999E+27</v>
-      </c>
-      <c r="M113">
-        <v>-2.27</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B114" t="s">
-        <v>25</v>
-      </c>
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" t="s">
-        <v>83</v>
-      </c>
-      <c r="F114" t="s">
-        <v>83</v>
-      </c>
-      <c r="G114">
-        <v>4</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="L114" s="1">
-        <v>9.1399999999999995E-33</v>
-      </c>
-      <c r="M114">
-        <v>-0.6</v>
-      </c>
-      <c r="N114" s="1">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>0</v>
-      </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" t="s">
-        <v>26</v>
-      </c>
-      <c r="E115" t="s">
-        <v>83</v>
-      </c>
-      <c r="F115" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115">
-        <v>4</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="L115" s="1">
-        <v>8.9000000000000005E+29</v>
-      </c>
-      <c r="M115">
-        <v>-0.18</v>
-      </c>
-      <c r="N115" s="1">
-        <v>-31.8</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>42</v>
-      </c>
-      <c r="B116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" t="s">
-        <v>51</v>
-      </c>
-      <c r="E116" t="s">
-        <v>83</v>
-      </c>
-      <c r="F116" t="s">
-        <v>83</v>
-      </c>
-      <c r="G116">
-        <v>5</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="L116" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="N116" s="1">
-        <v>-2080</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116" s="1">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-      <c r="T116" s="1">
-        <v>0</v>
-      </c>
-      <c r="U116">
         <v>0</v>
       </c>
     </row>
@@ -8002,7 +7703,7 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8027,28 +7728,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -8093,7 +7794,7 @@
         <v>19</v>
       </c>
       <c r="AC1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD1" t="s">
         <v>20</v>
@@ -8102,7 +7803,7 @@
         <v>21</v>
       </c>
       <c r="AF1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8112,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BD2702-A4F0-4C8E-9DB2-64CA916969A9}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8140,28 +7841,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -8206,7 +7907,7 @@
         <v>19</v>
       </c>
       <c r="AC1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AD1" t="s">
         <v>20</v>
@@ -8215,7 +7916,81 @@
         <v>21</v>
       </c>
       <c r="AF1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-4</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-0.65</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -8247,37 +8022,37 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -8292,7 +8067,7 @@
         <v>9</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
         <v>20</v>
@@ -8303,19 +8078,19 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1770B-2BAD-4793-AF16-1F67BA970CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126E77CF-AA20-4732-B895-3362CC8E4F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8815" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8700" uniqueCount="487">
   <si>
     <t>R1</t>
   </si>
@@ -1227,12 +1227,6 @@
     <t>D analogue added</t>
   </si>
   <si>
-    <t>H2O2pl</t>
-  </si>
-  <si>
-    <t>O3pl</t>
-  </si>
-  <si>
     <t>e3CH2</t>
   </si>
   <si>
@@ -2072,13 +2066,13 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
         <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
         <v>255</v>
@@ -8363,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Y112" t="s">
         <v>29</v>
@@ -16540,7 +16534,7 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B257" t="s">
         <v>30</v>
@@ -16549,7 +16543,7 @@
         <v>52</v>
       </c>
       <c r="E257" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -16588,15 +16582,15 @@
         <v>298</v>
       </c>
       <c r="W257" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Y257" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B258" t="s">
         <v>30</v>
@@ -16605,7 +16599,7 @@
         <v>33</v>
       </c>
       <c r="E258" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G258">
         <v>2</v>
@@ -16644,15 +16638,15 @@
         <v>298</v>
       </c>
       <c r="W258" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Y258" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B259" t="s">
         <v>31</v>
@@ -16661,7 +16655,7 @@
         <v>52</v>
       </c>
       <c r="E259" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -16700,15 +16694,15 @@
         <v>178</v>
       </c>
       <c r="W259" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Y259" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B260" t="s">
         <v>33</v>
@@ -16717,7 +16711,7 @@
         <v>38</v>
       </c>
       <c r="E260" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G260">
         <v>2</v>
@@ -16753,18 +16747,18 @@
         <v>0</v>
       </c>
       <c r="V260" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W260" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Y260" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B261" t="s">
         <v>52</v>
@@ -16773,7 +16767,7 @@
         <v>79</v>
       </c>
       <c r="E261" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -16812,21 +16806,21 @@
         <v>175</v>
       </c>
       <c r="W261" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y261" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B262" t="s">
         <v>38</v>
       </c>
       <c r="D262" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E262" t="s">
         <v>33</v>
@@ -16865,24 +16859,24 @@
         <v>0</v>
       </c>
       <c r="V262" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W262" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y262" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B263" t="s">
         <v>85</v>
       </c>
       <c r="D263" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E263" t="s">
         <v>69</v>
@@ -16921,18 +16915,18 @@
         <v>0</v>
       </c>
       <c r="V263" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W263" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y263" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B264" t="s">
         <v>52</v>
@@ -16941,7 +16935,7 @@
         <v>33</v>
       </c>
       <c r="E264" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -16980,21 +16974,21 @@
         <v>102</v>
       </c>
       <c r="W264" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Y264" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B265" t="s">
         <v>52</v>
       </c>
       <c r="D265" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E265" t="s">
         <v>31</v>
@@ -17033,24 +17027,24 @@
         <v>0</v>
       </c>
       <c r="V265" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W265" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y265" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B266" t="s">
         <v>81</v>
       </c>
       <c r="D266" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E266" t="s">
         <v>69</v>
@@ -17089,24 +17083,24 @@
         <v>0</v>
       </c>
       <c r="V266" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W266" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Y266" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B267" t="s">
         <v>81</v>
       </c>
       <c r="D267" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E267" t="s">
         <v>52</v>
@@ -17145,24 +17139,24 @@
         <v>0</v>
       </c>
       <c r="V267" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="W267" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y267" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B268" t="s">
         <v>75</v>
       </c>
       <c r="D268" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E268" t="s">
         <v>81</v>
@@ -17201,24 +17195,24 @@
         <v>0</v>
       </c>
       <c r="V268" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W268" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y268" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B269" t="s">
         <v>31</v>
       </c>
       <c r="D269" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E269" t="s">
         <v>69</v>
@@ -17257,24 +17251,24 @@
         <v>0</v>
       </c>
       <c r="V269" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W269" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y269" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B270" t="s">
         <v>38</v>
       </c>
       <c r="D270" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E270" t="s">
         <v>52</v>
@@ -17316,21 +17310,21 @@
         <v>175</v>
       </c>
       <c r="W270" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Y270" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B271" t="s">
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E271" t="s">
         <v>81</v>
@@ -17369,24 +17363,24 @@
         <v>0</v>
       </c>
       <c r="V271" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="W271" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Y271" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B272" t="s">
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E272" t="s">
         <v>69</v>
@@ -17425,18 +17419,18 @@
         <v>0</v>
       </c>
       <c r="V272" t="s">
+        <v>442</v>
+      </c>
+      <c r="W272" t="s">
         <v>444</v>
       </c>
-      <c r="W272" t="s">
-        <v>446</v>
-      </c>
       <c r="Y272" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B273" t="s">
         <v>61</v>
@@ -17445,7 +17439,7 @@
         <v>91</v>
       </c>
       <c r="E273" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -17481,24 +17475,24 @@
         <v>0</v>
       </c>
       <c r="V273" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W273" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y273" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B274" t="s">
         <v>93</v>
       </c>
       <c r="D274" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E274" t="s">
         <v>47</v>
@@ -17541,18 +17535,18 @@
         <v>0</v>
       </c>
       <c r="V274" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W274" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y274" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B275" t="s">
         <v>47</v>
@@ -17561,7 +17555,7 @@
         <v>93</v>
       </c>
       <c r="D275" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E275" t="s">
         <v>93</v>
@@ -17601,27 +17595,27 @@
         <v>0</v>
       </c>
       <c r="V275" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W275" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="X275" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Y275" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B276" t="s">
         <v>69</v>
       </c>
       <c r="D276" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E276" t="s">
         <v>31</v>
@@ -17663,21 +17657,21 @@
         <v>175</v>
       </c>
       <c r="W276" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Y276" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B277" t="s">
         <v>85</v>
       </c>
       <c r="D277" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E277" t="s">
         <v>69</v>
@@ -17719,21 +17713,21 @@
         <v>298</v>
       </c>
       <c r="W277" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y277" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B278" t="s">
         <v>52</v>
       </c>
       <c r="D278" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E278" t="s">
         <v>33</v>
@@ -17772,24 +17766,24 @@
         <v>0</v>
       </c>
       <c r="V278" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W278" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Y278" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B279" t="s">
         <v>69</v>
       </c>
       <c r="D279" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E279" t="s">
         <v>31</v>
@@ -17828,24 +17822,24 @@
         <v>0</v>
       </c>
       <c r="V279" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="W279" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y279" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B280" t="s">
         <v>85</v>
       </c>
       <c r="D280" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E280" t="s">
         <v>69</v>
@@ -17884,24 +17878,24 @@
         <v>0</v>
       </c>
       <c r="V280" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="W280" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y280" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B281" t="s">
         <v>52</v>
       </c>
       <c r="D281" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E281" t="s">
         <v>33</v>
@@ -17943,21 +17937,21 @@
         <v>298</v>
       </c>
       <c r="W281" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Y281" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B282" t="s">
         <v>81</v>
       </c>
       <c r="D282" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E282" t="s">
         <v>52</v>
@@ -17996,27 +17990,27 @@
         <v>0</v>
       </c>
       <c r="W282" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="X282" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Y282" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B283" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D283" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E283" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -18055,24 +18049,24 @@
         <v>175</v>
       </c>
       <c r="W283" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Y283" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B284" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D284" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E284" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -18111,21 +18105,21 @@
         <v>298</v>
       </c>
       <c r="W284" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Y284" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B285" t="s">
         <v>91</v>
       </c>
       <c r="D285" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E285" t="s">
         <v>61</v>
@@ -18164,24 +18158,24 @@
         <v>0</v>
       </c>
       <c r="V285" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W285" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y285" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B286" t="s">
         <v>81</v>
       </c>
       <c r="D286" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E286" t="s">
         <v>52</v>
@@ -18223,24 +18217,24 @@
         <v>300</v>
       </c>
       <c r="W286" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Y286" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B287" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D287" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E287" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -18280,27 +18274,27 @@
         <v>298</v>
       </c>
       <c r="W287" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X287" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Y287" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B288" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D288" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E288" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G288" s="2">
         <v>2</v>
@@ -18339,21 +18333,21 @@
         <v>298</v>
       </c>
       <c r="W288" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y288" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B289" t="s">
         <v>72</v>
       </c>
       <c r="D289" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E289" t="s">
         <v>33</v>
@@ -18401,24 +18395,24 @@
         <v>0</v>
       </c>
       <c r="V289" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W289" s="2" t="s">
         <v>87</v>
       </c>
       <c r="Y289" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B290" t="s">
         <v>72</v>
       </c>
       <c r="D290" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E290" t="s">
         <v>71</v>
@@ -18466,24 +18460,24 @@
         <v>0</v>
       </c>
       <c r="V290" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W290" s="2" t="s">
         <v>87</v>
       </c>
       <c r="Y290" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B291" t="s">
         <v>83</v>
       </c>
       <c r="D291" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E291" t="s">
         <v>69</v>
@@ -18531,24 +18525,24 @@
         <v>0</v>
       </c>
       <c r="V291" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W291" t="s">
         <v>87</v>
       </c>
       <c r="Y291" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B292" t="s">
         <v>72</v>
       </c>
       <c r="D292" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E292" t="s">
         <v>52</v>
@@ -18602,18 +18596,18 @@
         <v>87</v>
       </c>
       <c r="Y292" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B293" t="s">
         <v>72</v>
       </c>
       <c r="D293" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E293" t="s">
         <v>80</v>
@@ -18667,12 +18661,12 @@
         <v>87</v>
       </c>
       <c r="Y293" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B294" t="s">
         <v>80</v>
@@ -18681,7 +18675,7 @@
         <v>83</v>
       </c>
       <c r="E294" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G294" s="2">
         <v>2</v>
@@ -18726,24 +18720,24 @@
         <v>0</v>
       </c>
       <c r="V294" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W294" t="s">
         <v>87</v>
       </c>
       <c r="Y294" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B295" t="s">
         <v>80</v>
       </c>
       <c r="D295" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E295" t="s">
         <v>69</v>
@@ -18782,18 +18776,18 @@
         <v>0</v>
       </c>
       <c r="V295" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="W295" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Y295" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B296" t="s">
         <v>71</v>
@@ -18802,7 +18796,7 @@
         <v>72</v>
       </c>
       <c r="E296" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -18847,24 +18841,24 @@
         <v>0</v>
       </c>
       <c r="V296" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W296" t="s">
         <v>87</v>
       </c>
       <c r="Y296" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B297" t="s">
         <v>33</v>
       </c>
       <c r="D297" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E297" t="s">
         <v>71</v>
@@ -18903,21 +18897,21 @@
         <v>0</v>
       </c>
       <c r="V297" t="s">
+        <v>469</v>
+      </c>
+      <c r="W297" t="s">
+        <v>470</v>
+      </c>
+      <c r="X297" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="W297" t="s">
-        <v>472</v>
-      </c>
-      <c r="X297" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="Y297" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B298" t="s">
         <v>33</v>
@@ -18926,7 +18920,7 @@
         <v>72</v>
       </c>
       <c r="E298" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -18962,30 +18956,30 @@
         <v>0</v>
       </c>
       <c r="V298" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="W298" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="X298" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Y298" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B299" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D299" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E299" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G299">
         <v>2</v>
@@ -19021,18 +19015,18 @@
         <v>0</v>
       </c>
       <c r="V299" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W299" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Y299" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B300" t="s">
         <v>31</v>
@@ -19041,7 +19035,7 @@
         <v>80</v>
       </c>
       <c r="E300" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -19077,24 +19071,24 @@
         <v>0</v>
       </c>
       <c r="V300" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="W300" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Y300" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B301" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D301" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E301" t="s">
         <v>71</v>
@@ -19136,27 +19130,27 @@
         <v>298</v>
       </c>
       <c r="W301" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="X301" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Y301" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B302" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
       </c>
       <c r="E302" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -19195,15 +19189,15 @@
         <v>298</v>
       </c>
       <c r="W302" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y302" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B303" t="s">
         <v>52</v>
@@ -19212,7 +19206,7 @@
         <v>76</v>
       </c>
       <c r="E303" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G303">
         <v>2</v>
@@ -19248,18 +19242,18 @@
         <v>0</v>
       </c>
       <c r="V303" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="W303" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y303" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B304" t="s">
         <v>80</v>
@@ -19268,7 +19262,7 @@
         <v>76</v>
       </c>
       <c r="E304" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -19308,21 +19302,21 @@
         <v>176</v>
       </c>
       <c r="W304" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Y304" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B305" t="s">
         <v>79</v>
       </c>
       <c r="D305" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -19361,21 +19355,21 @@
         <v>298</v>
       </c>
       <c r="W305" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Y305" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B306" t="s">
         <v>76</v>
       </c>
       <c r="D306" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -19426,7 +19420,7 @@
         <v>87</v>
       </c>
       <c r="Y306" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.25">
@@ -20221,7 +20215,7 @@
         <v>33</v>
       </c>
       <c r="B321" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C321" t="s">
         <v>255</v>
@@ -20289,7 +20283,7 @@
         <v>255</v>
       </c>
       <c r="D322" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E322" t="s">
         <v>38</v>
@@ -20345,7 +20339,7 @@
         <v>33</v>
       </c>
       <c r="B323" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C323" t="s">
         <v>255</v>
@@ -20413,7 +20407,7 @@
         <v>255</v>
       </c>
       <c r="D324" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E324" t="s">
         <v>33</v>
@@ -20478,7 +20472,7 @@
         <v>255</v>
       </c>
       <c r="D325" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E325" t="s">
         <v>33</v>
@@ -20543,7 +20537,7 @@
         <v>255</v>
       </c>
       <c r="D326" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E326" t="s">
         <v>32</v>
@@ -20599,13 +20593,13 @@
         <v>34</v>
       </c>
       <c r="B327" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C327" t="s">
         <v>255</v>
       </c>
       <c r="D327" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E327" t="s">
         <v>33</v>
@@ -20670,7 +20664,7 @@
         <v>255</v>
       </c>
       <c r="D328" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E328" t="s">
         <v>33</v>
@@ -20735,7 +20729,7 @@
         <v>255</v>
       </c>
       <c r="D329" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E329" t="s">
         <v>33</v>
@@ -20791,13 +20785,13 @@
         <v>34</v>
       </c>
       <c r="B330" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C330" t="s">
         <v>255</v>
       </c>
       <c r="D330" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E330" t="s">
         <v>33</v>
@@ -20915,16 +20909,16 @@
         <v>40</v>
       </c>
       <c r="B332" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C332" t="s">
         <v>255</v>
       </c>
       <c r="D332" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E332" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F332" t="s">
         <v>255</v>
@@ -20980,7 +20974,7 @@
         <v>40</v>
       </c>
       <c r="B333" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C333" t="s">
         <v>255</v>
@@ -21045,16 +21039,16 @@
         <v>40</v>
       </c>
       <c r="B334" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C334" t="s">
         <v>255</v>
       </c>
       <c r="D334" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E334" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F334" t="s">
         <v>255</v>
@@ -21110,13 +21104,13 @@
         <v>40</v>
       </c>
       <c r="B335" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C335" t="s">
         <v>255</v>
       </c>
       <c r="D335" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E335" t="s">
         <v>33</v>
@@ -21181,7 +21175,7 @@
         <v>255</v>
       </c>
       <c r="D336" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E336" t="s">
         <v>56</v>
@@ -21234,7 +21228,7 @@
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B337" t="s">
         <v>38</v>
@@ -21296,10 +21290,10 @@
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B338" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C338" t="s">
         <v>255</v>
@@ -21367,7 +21361,7 @@
         <v>255</v>
       </c>
       <c r="D339" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E339" t="s">
         <v>33</v>
@@ -21420,7 +21414,7 @@
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B340" t="s">
         <v>34</v>
@@ -21485,10 +21479,10 @@
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B341" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C341" t="s">
         <v>255</v>
@@ -21550,10 +21544,10 @@
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B342" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C342" t="s">
         <v>255</v>
@@ -21615,7 +21609,7 @@
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B343" t="s">
         <v>43</v>
@@ -21624,7 +21618,7 @@
         <v>255</v>
       </c>
       <c r="D343" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E343" t="s">
         <v>33</v>
@@ -21680,7 +21674,7 @@
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B344" t="s">
         <v>43</v>
@@ -21742,7 +21736,7 @@
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B345" t="s">
         <v>58</v>
@@ -21804,7 +21798,7 @@
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B346" t="s">
         <v>44</v>
@@ -21869,10 +21863,10 @@
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B347" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C347" t="s">
         <v>255</v>
@@ -21881,7 +21875,7 @@
         <v>56</v>
       </c>
       <c r="E347" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F347" t="s">
         <v>255</v>
@@ -21934,10 +21928,10 @@
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B348" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C348" t="s">
         <v>255</v>
@@ -21996,7 +21990,7 @@
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B349" t="s">
         <v>38</v>
@@ -22058,10 +22052,10 @@
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B350" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C350" t="s">
         <v>255</v>
@@ -22120,16 +22114,16 @@
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B351" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C351" t="s">
         <v>255</v>
       </c>
       <c r="D351" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E351" t="s">
         <v>33</v>
@@ -22182,7 +22176,7 @@
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B352" t="s">
         <v>56</v>
@@ -22191,7 +22185,7 @@
         <v>255</v>
       </c>
       <c r="D352" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E352" t="s">
         <v>56</v>
@@ -22244,7 +22238,7 @@
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B353" t="s">
         <v>159</v>
@@ -22253,7 +22247,7 @@
         <v>255</v>
       </c>
       <c r="D353" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E353" t="s">
         <v>33</v>
@@ -22306,7 +22300,7 @@
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B354" t="s">
         <v>54</v>
@@ -22368,7 +22362,7 @@
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B355" t="s">
         <v>157</v>
@@ -22439,7 +22433,7 @@
         <v>255</v>
       </c>
       <c r="D356" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E356" t="s">
         <v>38</v>
@@ -22628,13 +22622,13 @@
         <v>58</v>
       </c>
       <c r="B359" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C359" t="s">
         <v>255</v>
       </c>
       <c r="D359" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E359" t="s">
         <v>33</v>
@@ -22693,7 +22687,7 @@
         <v>58</v>
       </c>
       <c r="B360" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C360" t="s">
         <v>255</v>
@@ -22758,7 +22752,7 @@
         <v>58</v>
       </c>
       <c r="B361" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C361" t="s">
         <v>255</v>
@@ -22826,7 +22820,7 @@
         <v>255</v>
       </c>
       <c r="D362" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E362" t="s">
         <v>33</v>
@@ -22950,7 +22944,7 @@
         <v>255</v>
       </c>
       <c r="D364" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E364" t="s">
         <v>33</v>
@@ -23254,7 +23248,7 @@
         <v>125</v>
       </c>
       <c r="B369" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C369" t="s">
         <v>255</v>
@@ -23316,7 +23310,7 @@
         <v>125</v>
       </c>
       <c r="B370" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C370" t="s">
         <v>255</v>
@@ -23325,7 +23319,7 @@
         <v>159</v>
       </c>
       <c r="E370" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F370" t="s">
         <v>255</v>
@@ -23378,7 +23372,7 @@
         <v>125</v>
       </c>
       <c r="B371" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C371" t="s">
         <v>255</v>
@@ -23387,7 +23381,7 @@
         <v>159</v>
       </c>
       <c r="E371" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F371" t="s">
         <v>255</v>
@@ -23440,7 +23434,7 @@
         <v>125</v>
       </c>
       <c r="B372" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C372" t="s">
         <v>255</v>
@@ -23570,7 +23564,7 @@
         <v>255</v>
       </c>
       <c r="D374" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E374" t="s">
         <v>33</v>
@@ -23635,7 +23629,7 @@
         <v>125</v>
       </c>
       <c r="E375" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F375" t="s">
         <v>255</v>
@@ -23815,7 +23809,7 @@
         <v>44</v>
       </c>
       <c r="B378" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C378" t="s">
         <v>255</v>
@@ -23880,13 +23874,13 @@
         <v>44</v>
       </c>
       <c r="B379" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C379" t="s">
         <v>255</v>
       </c>
       <c r="D379" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E379" t="s">
         <v>33</v>
@@ -23945,13 +23939,13 @@
         <v>44</v>
       </c>
       <c r="B380" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C380" t="s">
         <v>255</v>
       </c>
       <c r="D380" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E380" t="s">
         <v>38</v>
@@ -24013,7 +24007,7 @@
         <v>255</v>
       </c>
       <c r="D381" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E381" t="s">
         <v>33</v>
@@ -24069,7 +24063,7 @@
         <v>44</v>
       </c>
       <c r="B382" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C382" t="s">
         <v>255</v>
@@ -24199,7 +24193,7 @@
         <v>255</v>
       </c>
       <c r="D384" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E384" t="s">
         <v>33</v>
@@ -24261,7 +24255,7 @@
         <v>255</v>
       </c>
       <c r="D385" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E385" t="s">
         <v>33</v>
@@ -24326,7 +24320,7 @@
         <v>255</v>
       </c>
       <c r="D386" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E386" t="s">
         <v>33</v>
@@ -24391,7 +24385,7 @@
         <v>255</v>
       </c>
       <c r="D387" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E387" t="s">
         <v>38</v>
@@ -24453,7 +24447,7 @@
         <v>255</v>
       </c>
       <c r="D388" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E388" t="s">
         <v>33</v>
@@ -24568,7 +24562,7 @@
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B390" t="s">
         <v>33</v>
@@ -24630,7 +24624,7 @@
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B391" t="s">
         <v>43</v>
@@ -24639,7 +24633,7 @@
         <v>255</v>
       </c>
       <c r="D391" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E391" t="s">
         <v>54</v>
@@ -24692,7 +24686,7 @@
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B392" t="s">
         <v>40</v>
@@ -24754,7 +24748,7 @@
     </row>
     <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B393" t="s">
         <v>40</v>
@@ -24816,7 +24810,7 @@
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B394" t="s">
         <v>40</v>
@@ -24878,10 +24872,10 @@
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B395" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C395" t="s">
         <v>255</v>
@@ -24940,10 +24934,10 @@
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B396" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C396" t="s">
         <v>255</v>
@@ -25002,10 +24996,10 @@
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B397" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C397" t="s">
         <v>255</v>
@@ -25064,7 +25058,7 @@
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B398" t="s">
         <v>43</v>
@@ -25126,7 +25120,7 @@
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B399" t="s">
         <v>43</v>
@@ -25188,7 +25182,7 @@
     </row>
     <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B400" t="s">
         <v>58</v>
@@ -25250,7 +25244,7 @@
     </row>
     <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B401" t="s">
         <v>119</v>
@@ -25380,7 +25374,7 @@
         <v>30</v>
       </c>
       <c r="B403" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C403" t="s">
         <v>255</v>
@@ -25445,13 +25439,13 @@
         <v>30</v>
       </c>
       <c r="B404" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C404" t="s">
         <v>255</v>
       </c>
       <c r="D404" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E404" t="s">
         <v>33</v>
@@ -25510,7 +25504,7 @@
         <v>30</v>
       </c>
       <c r="B405" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C405" t="s">
         <v>255</v>
@@ -25578,7 +25572,7 @@
         <v>255</v>
       </c>
       <c r="D406" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E406" t="s">
         <v>56</v>
@@ -25696,7 +25690,7 @@
         <v>52</v>
       </c>
       <c r="B408" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C408" t="s">
         <v>255</v>
@@ -25758,7 +25752,7 @@
         <v>52</v>
       </c>
       <c r="B409" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C409" t="s">
         <v>255</v>
@@ -25820,7 +25814,7 @@
         <v>52</v>
       </c>
       <c r="B410" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C410" t="s">
         <v>255</v>
@@ -25947,7 +25941,7 @@
         <v>79</v>
       </c>
       <c r="B412" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C412" t="s">
         <v>255</v>
@@ -26012,7 +26006,7 @@
         <v>79</v>
       </c>
       <c r="B413" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C413" t="s">
         <v>255</v>
@@ -26074,7 +26068,7 @@
         <v>63</v>
       </c>
       <c r="B414" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C414" t="s">
         <v>255</v>
@@ -26145,7 +26139,7 @@
         <v>54</v>
       </c>
       <c r="E415" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F415" t="s">
         <v>255</v>
@@ -26396,13 +26390,13 @@
         <v>61</v>
       </c>
       <c r="B419" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C419" t="s">
         <v>255</v>
       </c>
       <c r="D419" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E419" t="s">
         <v>33</v>
@@ -26461,7 +26455,7 @@
         <v>61</v>
       </c>
       <c r="B420" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C420" t="s">
         <v>255</v>
@@ -26526,13 +26520,13 @@
         <v>61</v>
       </c>
       <c r="B421" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C421" t="s">
         <v>255</v>
       </c>
       <c r="D421" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E421" t="s">
         <v>56</v>
@@ -26588,13 +26582,13 @@
         <v>61</v>
       </c>
       <c r="B422" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C422" t="s">
         <v>255</v>
       </c>
       <c r="D422" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E422" t="s">
         <v>56</v>
@@ -26774,7 +26768,7 @@
         <v>119</v>
       </c>
       <c r="B425" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C425" t="s">
         <v>255</v>
@@ -26898,7 +26892,7 @@
         <v>130</v>
       </c>
       <c r="B427" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C427" t="s">
         <v>255</v>
@@ -27028,7 +27022,7 @@
         <v>255</v>
       </c>
       <c r="D429" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E429" t="s">
         <v>255</v>
@@ -27090,7 +27084,7 @@
         <v>255</v>
       </c>
       <c r="D430" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E430" t="s">
         <v>255</v>
@@ -27800,8 +27794,8 @@
   <dimension ref="A1:AF684"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36539,7 +36533,7 @@
         <v>0</v>
       </c>
       <c r="AD138" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF138" t="s">
         <v>29</v>
@@ -67999,7 +67993,7 @@
         <v>380</v>
       </c>
       <c r="AE622" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF622" t="s">
         <v>42</v>
@@ -68064,7 +68058,7 @@
         <v>380</v>
       </c>
       <c r="AE623" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF623" t="s">
         <v>42</v>
@@ -68129,7 +68123,7 @@
         <v>380</v>
       </c>
       <c r="AE624" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF624" t="s">
         <v>42</v>
@@ -72405,7 +72399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -72487,7 +72481,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
         <v>255</v>
@@ -72513,10 +72507,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
         <v>395</v>
@@ -72539,7 +72533,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
         <v>255</v>
@@ -72629,7 +72623,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
         <v>395</v>
@@ -72754,10 +72748,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D11" t="s">
         <v>255</v>
@@ -72780,7 +72774,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -72880,10 +72874,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -73192,10 +73186,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>255</v>
@@ -73212,8 +73206,8 @@
       <c r="G11" t="s">
         <v>289</v>
       </c>
-      <c r="K11" t="s">
-        <v>285</v>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="V11" t="s">
         <v>398</v>
@@ -73221,10 +73215,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
         <v>255</v>
@@ -73243,9 +73237,6 @@
       </c>
       <c r="J12">
         <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -73253,10 +73244,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>255</v>
@@ -73270,19 +73261,31 @@
       <c r="G13" t="s">
         <v>289</v>
       </c>
+      <c r="H13">
+        <v>-18.077131000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.55933509999999997</v>
+      </c>
       <c r="J13">
-        <v>0</v>
+        <v>-18.64</v>
+      </c>
+      <c r="K13" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
         <v>255</v>
@@ -73296,31 +73299,19 @@
       <c r="G14" t="s">
         <v>289</v>
       </c>
-      <c r="H14">
-        <v>-18.077131000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.55933509999999997</v>
-      </c>
       <c r="J14">
-        <v>-18.64</v>
-      </c>
-      <c r="K14" t="s">
-        <v>259</v>
-      </c>
-      <c r="V14" t="s">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>255</v>
@@ -73334,20 +73325,8 @@
       <c r="G15" t="s">
         <v>289</v>
       </c>
-      <c r="H15">
-        <v>-18.201514</v>
-      </c>
-      <c r="I15">
-        <v>0.55933509999999997</v>
-      </c>
       <c r="J15">
-        <v>-18.760000000000002</v>
-      </c>
-      <c r="K15" t="s">
-        <v>259</v>
-      </c>
-      <c r="S15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
         <v>398</v>
@@ -73355,13 +73334,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>255</v>
@@ -73376,19 +73355,16 @@
         <v>289</v>
       </c>
       <c r="H16">
-        <v>-18.133102999999998</v>
+        <v>-18.114446000000001</v>
       </c>
       <c r="I16">
-        <v>1.1186700999999999</v>
+        <v>0.55933509999999997</v>
       </c>
       <c r="J16">
-        <v>-19.25</v>
+        <v>-18.670000000000002</v>
       </c>
       <c r="K16" t="s">
         <v>259</v>
-      </c>
-      <c r="S16">
-        <v>0.5</v>
       </c>
       <c r="V16" t="s">
         <v>398</v>
@@ -73399,10 +73375,10 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>255</v>
@@ -73416,19 +73392,31 @@
       <c r="G17" t="s">
         <v>289</v>
       </c>
+      <c r="H17">
+        <v>-18.653442999999999</v>
+      </c>
+      <c r="I17">
+        <v>1.1186700999999999</v>
+      </c>
       <c r="J17">
-        <v>0</v>
+        <v>-19.77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>259</v>
+      </c>
+      <c r="V17" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
         <v>255</v>
@@ -73445,19 +73433,16 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="V18" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>406</v>
       </c>
       <c r="D19" t="s">
         <v>255</v>
@@ -73471,31 +73456,19 @@
       <c r="G19" t="s">
         <v>289</v>
       </c>
-      <c r="H19">
-        <v>-18.114446000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.55933509999999997</v>
-      </c>
       <c r="J19">
-        <v>-18.670000000000002</v>
-      </c>
-      <c r="K19" t="s">
-        <v>259</v>
-      </c>
-      <c r="V19" t="s">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
         <v>255</v>
@@ -73509,28 +73482,16 @@
       <c r="G20" t="s">
         <v>289</v>
       </c>
-      <c r="H20">
-        <v>-18.653442999999999</v>
-      </c>
-      <c r="I20">
-        <v>1.1186700999999999</v>
-      </c>
       <c r="J20">
-        <v>-19.77</v>
-      </c>
-      <c r="K20" t="s">
-        <v>259</v>
-      </c>
-      <c r="V20" t="s">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
         <v>255</v>
@@ -73550,16 +73511,13 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="V21" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
         <v>255</v>
@@ -73577,424 +73535,6 @@
         <v>289</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F23" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" t="s">
-        <v>289</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" t="s">
-        <v>395</v>
-      </c>
-      <c r="F24" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" t="s">
-        <v>289</v>
-      </c>
-      <c r="K24" t="s">
-        <v>285</v>
-      </c>
-      <c r="S24">
-        <v>0.5</v>
-      </c>
-      <c r="V24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" t="s">
-        <v>289</v>
-      </c>
-      <c r="K25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S25">
-        <v>0.5</v>
-      </c>
-      <c r="V25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" t="s">
-        <v>395</v>
-      </c>
-      <c r="F26" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H26">
-        <v>-18.239865999999999</v>
-      </c>
-      <c r="I26">
-        <v>1.1186700999999999</v>
-      </c>
-      <c r="J26">
-        <v>-19.36</v>
-      </c>
-      <c r="K26" t="s">
-        <v>259</v>
-      </c>
-      <c r="S26">
-        <v>0.5</v>
-      </c>
-      <c r="V26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F27" t="s">
-        <v>259</v>
-      </c>
-      <c r="G27" t="s">
-        <v>289</v>
-      </c>
-      <c r="H27">
-        <v>-18.314288999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.55933509999999997</v>
-      </c>
-      <c r="J27">
-        <v>-18.87</v>
-      </c>
-      <c r="K27" t="s">
-        <v>259</v>
-      </c>
-      <c r="S27">
-        <v>0.5</v>
-      </c>
-      <c r="V27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" t="s">
-        <v>395</v>
-      </c>
-      <c r="F28" t="s">
-        <v>259</v>
-      </c>
-      <c r="G28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28">
-        <v>-18.72289</v>
-      </c>
-      <c r="I28">
-        <v>1.6780052000000001</v>
-      </c>
-      <c r="J28">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="K28" t="s">
-        <v>259</v>
-      </c>
-      <c r="V28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" t="s">
-        <v>395</v>
-      </c>
-      <c r="F29" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" t="s">
-        <v>289</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>359</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" t="s">
-        <v>395</v>
-      </c>
-      <c r="F30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" t="s">
-        <v>289</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" t="s">
-        <v>395</v>
-      </c>
-      <c r="F31" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" t="s">
-        <v>289</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E32" t="s">
-        <v>395</v>
-      </c>
-      <c r="F32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" t="s">
-        <v>289</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" t="s">
-        <v>395</v>
-      </c>
-      <c r="F33" t="s">
-        <v>259</v>
-      </c>
-      <c r="G33" t="s">
-        <v>289</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>279</v>
-      </c>
-      <c r="C34" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" t="s">
-        <v>395</v>
-      </c>
-      <c r="F34" t="s">
-        <v>259</v>
-      </c>
-      <c r="G34" t="s">
-        <v>289</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" t="s">
-        <v>395</v>
-      </c>
-      <c r="F35" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" t="s">
-        <v>289</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" t="s">
-        <v>400</v>
-      </c>
-      <c r="C36" t="s">
-        <v>255</v>
-      </c>
-      <c r="D36" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" t="s">
-        <v>395</v>
-      </c>
-      <c r="F36" t="s">
-        <v>259</v>
-      </c>
-      <c r="G36" t="s">
-        <v>289</v>
-      </c>
-      <c r="J36">
         <v>0</v>
       </c>
     </row>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126E77CF-AA20-4732-B895-3362CC8E4F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D90CE3-F195-4C40-87EF-CC9D4821F2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204080CC-FF49-4003-96A8-596FD870AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF691D8-5EF0-4F4D-93A8-3268215872A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
     <sheet name="Photodissociation" sheetId="3" r:id="rId3"/>
     <sheet name="Photoionization" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6513" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6555" uniqueCount="253">
   <si>
     <t>R1</t>
   </si>
@@ -770,6 +781,24 @@
   <si>
     <t>New</t>
   </si>
+  <si>
+    <t xml:space="preserve">none </t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>296 K</t>
+  </si>
+  <si>
+    <t>Stubbing 2015</t>
+  </si>
+  <si>
+    <t>Balancing Airapetian Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebenezer Solomon </t>
+  </si>
 </sst>
 </file>
 
@@ -1164,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y440"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1296,7 @@
         <v>78</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1329,7 +1358,7 @@
         <v>78</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1391,7 +1420,7 @@
         <v>78</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1453,7 +1482,7 @@
         <v>78</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1515,7 +1544,7 @@
         <v>78</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1577,7 +1606,7 @@
         <v>78</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1642,7 +1671,7 @@
         <v>78</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1707,7 +1736,7 @@
         <v>78</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1772,7 +1801,7 @@
         <v>78</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1837,7 +1866,7 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1899,7 +1928,7 @@
         <v>78</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1961,7 +1990,7 @@
         <v>78</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2023,7 +2052,7 @@
         <v>78</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2088,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2153,7 +2182,7 @@
         <v>78</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2218,7 +2247,7 @@
         <v>78</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2283,7 +2312,7 @@
         <v>78</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2345,7 +2374,7 @@
         <v>78</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2407,7 +2436,7 @@
         <v>78</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2469,7 +2498,7 @@
         <v>78</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2531,7 +2560,7 @@
         <v>78</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2596,7 +2625,7 @@
         <v>78</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2661,7 +2690,7 @@
         <v>78</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2726,7 +2755,7 @@
         <v>78</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2791,7 +2820,7 @@
         <v>31</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2853,7 +2882,7 @@
         <v>78</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2915,7 +2944,7 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2980,7 +3009,7 @@
         <v>78</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3036,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3098,7 +3127,7 @@
         <v>78</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3160,7 +3189,7 @@
         <v>78</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3222,7 +3251,7 @@
         <v>78</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3284,7 +3313,7 @@
         <v>78</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3346,7 +3375,7 @@
         <v>78</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3408,7 +3437,7 @@
         <v>78</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3470,7 +3499,7 @@
         <v>78</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3532,7 +3561,7 @@
         <v>78</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3597,7 +3626,7 @@
         <v>78</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3662,7 +3691,7 @@
         <v>78</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3727,7 +3756,7 @@
         <v>78</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3792,7 +3821,7 @@
         <v>31</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3857,7 +3886,7 @@
         <v>78</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3919,7 +3948,7 @@
         <v>78</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3981,7 +4010,7 @@
         <v>31</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4043,7 +4072,7 @@
         <v>78</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4105,7 +4134,7 @@
         <v>78</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4167,7 +4196,7 @@
         <v>78</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4229,7 +4258,7 @@
         <v>78</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4291,7 +4320,7 @@
         <v>78</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4353,7 +4382,7 @@
         <v>78</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4415,7 +4444,7 @@
         <v>78</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -4477,7 +4506,7 @@
         <v>78</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -4539,7 +4568,7 @@
         <v>78</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -4601,7 +4630,7 @@
         <v>78</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -4663,7 +4692,7 @@
         <v>78</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -4725,7 +4754,7 @@
         <v>78</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -4787,7 +4816,7 @@
         <v>78</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -4849,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -4914,7 +4943,7 @@
         <v>78</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -4979,7 +5008,7 @@
         <v>78</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5041,7 +5070,7 @@
         <v>78</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5103,7 +5132,7 @@
         <v>78</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -5165,7 +5194,7 @@
         <v>78</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -5227,7 +5256,7 @@
         <v>78</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -5289,7 +5318,7 @@
         <v>78</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -5354,7 +5383,7 @@
         <v>78</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -5419,7 +5448,7 @@
         <v>78</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -5481,7 +5510,7 @@
         <v>78</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -5543,7 +5572,7 @@
         <v>78</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -5605,7 +5634,7 @@
         <v>78</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -5667,7 +5696,7 @@
         <v>78</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -5729,7 +5758,7 @@
         <v>31</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -5791,7 +5820,7 @@
         <v>78</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -5853,7 +5882,7 @@
         <v>78</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -5915,7 +5944,7 @@
         <v>31</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -5977,7 +6006,7 @@
         <v>78</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -6039,7 +6068,7 @@
         <v>31</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -6101,7 +6130,7 @@
         <v>78</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -6163,7 +6192,7 @@
         <v>78</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -6225,7 +6254,7 @@
         <v>78</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -6287,7 +6316,7 @@
         <v>78</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -6352,7 +6381,7 @@
         <v>78</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -6417,7 +6446,7 @@
         <v>78</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -6482,7 +6511,7 @@
         <v>78</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -6544,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -6606,7 +6635,7 @@
         <v>78</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -6668,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -6730,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -6792,7 +6821,7 @@
         <v>78</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -6854,7 +6883,7 @@
         <v>78</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -6916,7 +6945,7 @@
         <v>78</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -6981,7 +7010,7 @@
         <v>78</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -7046,7 +7075,7 @@
         <v>78</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -7108,7 +7137,7 @@
         <v>78</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -7170,7 +7199,7 @@
         <v>78</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -7215,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -7235,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -7280,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -7300,7 +7329,7 @@
         <v>78</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -7345,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -7365,7 +7394,7 @@
         <v>78</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -7410,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -7430,7 +7459,7 @@
         <v>78</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -7475,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -7495,7 +7524,7 @@
         <v>78</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -7540,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -7560,7 +7589,7 @@
         <v>78</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -7602,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -7622,7 +7651,7 @@
         <v>78</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -7664,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -7684,7 +7713,7 @@
         <v>78</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -7726,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -7746,7 +7775,7 @@
         <v>78</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -7788,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -7808,7 +7837,7 @@
         <v>78</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -7850,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -7870,7 +7899,7 @@
         <v>78</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -7912,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -7932,7 +7961,7 @@
         <v>78</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -7974,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -7994,7 +8023,7 @@
         <v>78</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -8036,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -8056,7 +8085,7 @@
         <v>78</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -8098,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -8118,7 +8147,7 @@
         <v>78</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -8158,6 +8187,80 @@
       </c>
       <c r="U111">
         <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1.2899999999999999E-10</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112" t="s">
+        <v>249</v>
+      </c>
+      <c r="W112" t="s">
+        <v>250</v>
+      </c>
+      <c r="X112" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="12:23" x14ac:dyDescent="0.25">
@@ -8896,7 +8999,7 @@
   <dimension ref="A1:AF684"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
@@ -53501,8 +53604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -53961,7 +54064,7 @@
         <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s">
         <v>243</v>
@@ -53987,9 +54090,113 @@
         <v>112</v>
       </c>
       <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="V15" t="s">
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="V18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s">
         <v>243</v>
       </c>
     </row>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF691D8-5EF0-4F4D-93A8-3268215872A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF736A84-BFFB-47E7-AD76-231F1BA8150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6555" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="254">
   <si>
     <t>R1</t>
   </si>
@@ -799,6 +799,9 @@
   <si>
     <t xml:space="preserve">Ebenezer Solomon </t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -1193,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8999,8 +9002,8 @@
   <dimension ref="A1:AF684"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -53605,7 +53608,7 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54195,6 +54198,9 @@
       </c>
       <c r="G19" t="s">
         <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>253</v>
       </c>
       <c r="V19" t="s">
         <v>243</v>
@@ -54235,10 +54241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54942,13 +54948,36 @@
         <v>246</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>112</v>
       </c>
       <c r="V24" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4026F78B-54C2-4BD3-9E42-9355242C8BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2736834-4C0B-4B22-B034-77FB00EA1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="1" r:id="rId1"/>
@@ -8701,8 +8701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -14430,7 +14430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -14960,8 +14960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
+++ b/Earth-Inputs/REACTION_NETWORK_EARTH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbt92\Documents\GitHub\bluejay\Earth-Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4026F78B-54C2-4BD3-9E42-9355242C8BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948163F2-BF45-42BE-B36D-F61B84C0BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neutral reactions" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y440"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -8701,9 +8701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
